--- a/data/india/mayo_2021_India.xlsx
+++ b/data/india/mayo_2021_India.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\plastics-COVID_project\data\india\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91508BD9-B1F9-411D-A372-AC9B0C4A6A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD0BA47-E062-40E7-9BB5-4CA50EBB9B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FC6469F1-194B-4FDF-A078-7824C966AD60}"/>
+    <workbookView xWindow="1155" yWindow="2820" windowWidth="21600" windowHeight="11385" xr2:uid="{FC6469F1-194B-4FDF-A078-7824C966AD60}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t xml:space="preserve">S.No. </t>
   </si>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>203 TPD</t>
   </si>
   <si>
     <t xml:space="preserve">Andaman &amp; Nicobar </t>
@@ -763,7 +760,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,7 +789,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="7">
         <v>1.4E-2</v>
@@ -820,7 +817,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="11">
         <v>0.112</v>
@@ -918,7 +915,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="9">
         <v>0.45</v>
@@ -1100,7 +1097,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="11">
         <v>3.3000000000000002E-2</v>
@@ -1114,7 +1111,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="9">
         <v>7.3999999999999996E-2</v>
@@ -1282,8 +1279,8 @@
       <c r="B37" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="17" t="s">
-        <v>35</v>
+      <c r="C37" s="17">
+        <v>203</v>
       </c>
       <c r="D37" s="18">
         <v>198</v>
